--- a/Winform_FastFood/GUI/bin/Debug/template.xlsx
+++ b/Winform_FastFood/GUI/bin/Debug/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Winform-Fast-food-restaurant-manager\Winform_FastFood\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0503EE7-537D-4A2D-96FE-3E4D25B93F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D76077-29E0-44CA-B891-74313D5A360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B013F7A5-C8FC-422D-8DD8-FCA5936E07AE}"/>
+    <workbookView xWindow="3600" yWindow="1065" windowWidth="21600" windowHeight="11835" xr2:uid="{B013F7A5-C8FC-422D-8DD8-FCA5936E07AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">Báo cáo doanh thu tháng </t>
   </si>
@@ -56,14 +56,20 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>tổng doanh thu của tháng:</t>
+    <t>tổng thu của tháng:</t>
+  </si>
+  <si>
+    <t>tổng chi của tháng:</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +105,17 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,18 +130,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,11 +155,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,25 +185,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,69 +549,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE6114-93E2-4E84-9771-6D9A9AC6AA26}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="14.875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
